--- a/medicine/Psychotrope/Brasserie_Strubbe/Brasserie_Strubbe.xlsx
+++ b/medicine/Psychotrope/Brasserie_Strubbe/Brasserie_Strubbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Strubbe (en néerlandais : Brouwerij Strubbe) autrefois appelée  La Vierge de Gand (De Maagd van Gent) est une brasserie familiale belge située à Ichtegem en province de Flandre-Occidentale. Elle brasse plus d'une vingtaine de marques de bières différentes et une soixantaine de variétés de bières. Certaines sont commercialisées par des brasseries de distribution.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie a le même âge que la Belgique puisqu'elle fut fondée en 1830. Carolus Strubbe, en provenance de Tielt, ouvre une ferme-brasserie à Ichtegem derrière l'église Saint Michel datant du XVIIe siècle. À cette époque, comme la plupart des brasseries de la région, les activités brassicoles ont lieu principalement en hiver lorsque les travaux des champs sont au point mort. Les bières produites sont de fermentation haute. Louis, le fils de Carolus succède à son père puis cède le flambeau à son propre fils Médart qui donne le nom de Brouwerij Strubbe à l'entreprise familiale. Le fils de Médart, Aimé dirige ensuite la brasserie familiale qui commence à brasser des bières de fermentation basse. Il a deux fils : Gilbert qui devenait maître brasseur et Étienne qui devenait le responsable de la vente et de l'administration. La brasserie est ensuite dirigée par Norbert Strubbe, le fils d’Étienne, et par Marc Strubbe, le fils de Gilbert, qui ont succédé à leur père respectif. En 2008, Norbert Strubbe passe entièrement le flambeau à son fils Stefan qui représente ainsi la septième génération de brasseurs de la famille Strubbe.
 Aujourd’hui, la brasserie exporte ses bières vers le Japon, les États-Unis, le Danemark, l’Allemagne, l’Italie et les Pays-Bas.
@@ -545,7 +559,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les bières produites :
 BAB 401 - titrant 8 % en volume d'alcool
